--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:N107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>51389.4872</v>
       </c>
       <c r="G2" t="n">
-        <v>-752618.3706999997</v>
+        <v>6.636500000000003</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>171953.709</v>
       </c>
       <c r="G3" t="n">
-        <v>-924572.0796999998</v>
+        <v>6.628000000000003</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>65608.46000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-990180.5396999997</v>
+        <v>6.624500000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>-990170.5396999997</v>
+        <v>6.624000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>30000</v>
       </c>
       <c r="G6" t="n">
-        <v>-1020170.5397</v>
+        <v>6.637</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>2334.3102</v>
       </c>
       <c r="G7" t="n">
-        <v>-1022504.8499</v>
+        <v>6.644499999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>20000</v>
       </c>
       <c r="G8" t="n">
-        <v>-1022504.8499</v>
+        <v>6.6485</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>9486.016</v>
       </c>
       <c r="G9" t="n">
-        <v>-1013018.8339</v>
+        <v>6.660500000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>20000</v>
       </c>
       <c r="G10" t="n">
-        <v>-1033018.8339</v>
+        <v>6.657500000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>270961.1891</v>
       </c>
       <c r="G11" t="n">
-        <v>-762057.6447999997</v>
+        <v>6.654500000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>280245.8324</v>
       </c>
       <c r="G12" t="n">
-        <v>-481811.8123999996</v>
+        <v>6.659999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,13 +849,13 @@
         <v>254.8985</v>
       </c>
       <c r="G13" t="n">
-        <v>-481556.9138999996</v>
+        <v>6.665999999999999</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>-481546.9138999996</v>
+        <v>6.672499999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>50021.4545</v>
       </c>
       <c r="G15" t="n">
-        <v>-481546.9138999996</v>
+        <v>6.6785</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>20810</v>
       </c>
       <c r="G16" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.681999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,13 +993,13 @@
         <v>80720.72990000001</v>
       </c>
       <c r="G17" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.685499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,7 +1029,7 @@
         <v>130987.4674</v>
       </c>
       <c r="G18" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.688999999999998</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,7 +1065,7 @@
         <v>254.0145</v>
       </c>
       <c r="G19" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.692499999999998</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,7 +1101,7 @@
         <v>218.8126</v>
       </c>
       <c r="G20" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.695999999999998</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>98.8888</v>
       </c>
       <c r="G21" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.699499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>98.8888</v>
       </c>
       <c r="G22" t="n">
-        <v>-460736.9138999996</v>
+        <v>6.714999999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>2477.5656</v>
       </c>
       <c r="G23" t="n">
-        <v>-463214.4794999996</v>
+        <v>6.722499999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>-463204.4794999996</v>
+        <v>6.741999999999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,13 +1281,13 @@
         <v>88.8888</v>
       </c>
       <c r="G25" t="n">
-        <v>-463204.4794999996</v>
+        <v>6.7505</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,7 +1317,7 @@
         <v>2495.6202</v>
       </c>
       <c r="G26" t="n">
-        <v>-463204.4794999996</v>
+        <v>6.761</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,7 +1353,7 @@
         <v>7000.14</v>
       </c>
       <c r="G27" t="n">
-        <v>-463204.4794999996</v>
+        <v>6.777500000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>7320.937</v>
       </c>
       <c r="G28" t="n">
-        <v>-470525.4164999996</v>
+        <v>6.789500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,7 +1425,7 @@
         <v>2679.063</v>
       </c>
       <c r="G29" t="n">
-        <v>-470525.4164999996</v>
+        <v>6.801500000000002</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,7 +1461,7 @@
         <v>4651.874</v>
       </c>
       <c r="G30" t="n">
-        <v>-470525.4164999996</v>
+        <v>6.813500000000002</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,7 +1497,7 @@
         <v>28742</v>
       </c>
       <c r="G31" t="n">
-        <v>-499267.4164999996</v>
+        <v>6.815000000000002</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,13 +1533,13 @@
         <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>-499257.4164999996</v>
+        <v>6.816000000000003</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>59997.3053</v>
       </c>
       <c r="G33" t="n">
-        <v>-559254.7217999996</v>
+        <v>6.810000000000002</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,13 +1605,13 @@
         <v>41000</v>
       </c>
       <c r="G34" t="n">
-        <v>-600254.7217999996</v>
+        <v>6.803000000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,13 +1641,13 @@
         <v>15105.7401</v>
       </c>
       <c r="G35" t="n">
-        <v>-615360.4618999996</v>
+        <v>6.794000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>502637.4985</v>
       </c>
       <c r="G36" t="n">
-        <v>-1117997.9604</v>
+        <v>6.784000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>20005</v>
       </c>
       <c r="G37" t="n">
-        <v>-1097992.9604</v>
+        <v>6.762000000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>-1097982.9604</v>
+        <v>6.759000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>2592.09</v>
       </c>
       <c r="G39" t="n">
-        <v>-1100575.0504</v>
+        <v>6.737500000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>257.4479</v>
       </c>
       <c r="G40" t="n">
-        <v>-1100317.6025</v>
+        <v>6.731000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>49243.331</v>
       </c>
       <c r="G41" t="n">
-        <v>-1100317.6025</v>
+        <v>6.724500000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,6 +1871,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1848,7 +1893,7 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>-1100307.6025</v>
+        <v>6.718500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,6 +1907,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1883,7 +1929,7 @@
         <v>3032.0162</v>
       </c>
       <c r="G43" t="n">
-        <v>-1103339.6187</v>
+        <v>6.710500000000001</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,6 +1943,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1918,7 +1965,7 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-1103329.6187</v>
+        <v>6.704500000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,6 +1979,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1953,7 +2001,7 @@
         <v>3022.016</v>
       </c>
       <c r="G45" t="n">
-        <v>-1103329.6187</v>
+        <v>6.698500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,6 +2015,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1988,7 +2037,7 @@
         <v>37756.2578</v>
       </c>
       <c r="G46" t="n">
-        <v>-1103329.6187</v>
+        <v>6.692500000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,6 +2051,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2023,7 +2073,7 @@
         <v>577.2988</v>
       </c>
       <c r="G47" t="n">
-        <v>-1103906.9175</v>
+        <v>6.684</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,6 +2087,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2058,7 +2109,7 @@
         <v>26053.4805</v>
       </c>
       <c r="G48" t="n">
-        <v>-1077853.437</v>
+        <v>6.6765</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,6 +2123,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2093,7 +2145,7 @@
         <v>2172.6764</v>
       </c>
       <c r="G49" t="n">
-        <v>-1077853.437</v>
+        <v>6.669</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,6 +2159,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2128,7 +2181,7 @@
         <v>430</v>
       </c>
       <c r="G50" t="n">
-        <v>-1077853.437</v>
+        <v>6.661499999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,6 +2195,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2163,7 +2217,7 @@
         <v>10100</v>
       </c>
       <c r="G51" t="n">
-        <v>-1087953.437</v>
+        <v>6.651999999999999</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,6 +2231,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2198,7 +2253,7 @@
         <v>789.8577</v>
       </c>
       <c r="G52" t="n">
-        <v>-1087163.5793</v>
+        <v>6.6455</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,6 +2267,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2233,7 +2289,7 @@
         <v>40000</v>
       </c>
       <c r="G53" t="n">
-        <v>-1127163.5793</v>
+        <v>6.635499999999999</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,6 +2303,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,7 +2325,7 @@
         <v>10100</v>
       </c>
       <c r="G54" t="n">
-        <v>-1127163.5793</v>
+        <v>6.625999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,6 +2339,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2303,7 +2361,7 @@
         <v>155185.7584</v>
       </c>
       <c r="G55" t="n">
-        <v>-1282349.3377</v>
+        <v>6.616999999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,6 +2375,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2338,7 +2397,7 @@
         <v>182613.0251</v>
       </c>
       <c r="G56" t="n">
-        <v>-1099736.3126</v>
+        <v>6.607999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,6 +2411,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2373,7 +2433,7 @@
         <v>420929.8388</v>
       </c>
       <c r="G57" t="n">
-        <v>-1520666.1514</v>
+        <v>6.611499999999998</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
@@ -2393,6 +2453,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2414,7 +2475,7 @@
         <v>19583.2561</v>
       </c>
       <c r="G58" t="n">
-        <v>-1501082.8953</v>
+        <v>6.595999999999998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2432,6 +2493,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2453,7 +2515,7 @@
         <v>5000</v>
       </c>
       <c r="G59" t="n">
-        <v>-1501082.8953</v>
+        <v>6.598999999999998</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2471,6 +2533,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2492,7 +2555,7 @@
         <v>3500</v>
       </c>
       <c r="G60" t="n">
-        <v>-1504582.8953</v>
+        <v>6.583999999999998</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2531,7 +2595,7 @@
         <v>578.3436</v>
       </c>
       <c r="G61" t="n">
-        <v>-1504004.551699999</v>
+        <v>6.571999999999997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2549,6 +2613,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2570,7 +2635,7 @@
         <v>1839</v>
       </c>
       <c r="G62" t="n">
-        <v>-1504004.551699999</v>
+        <v>6.556499999999997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2588,6 +2653,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2609,7 +2675,7 @@
         <v>231819.5238</v>
       </c>
       <c r="G63" t="n">
-        <v>-1735824.0755</v>
+        <v>6.552499999999997</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2627,6 +2693,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2648,7 +2715,7 @@
         <v>550.3163</v>
       </c>
       <c r="G64" t="n">
-        <v>-1735273.7592</v>
+        <v>6.540499999999996</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -2668,6 +2735,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2689,7 +2757,7 @@
         <v>16793.3111</v>
       </c>
       <c r="G65" t="n">
-        <v>-1752067.0703</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2707,6 +2775,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2728,7 +2797,7 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-1752057.0703</v>
+        <v>6.507999999999996</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
@@ -2748,6 +2817,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2769,7 +2839,7 @@
         <v>32.8703</v>
       </c>
       <c r="G67" t="n">
-        <v>-1752057.0703</v>
+        <v>6.498499999999996</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2787,6 +2857,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2808,7 +2879,7 @@
         <v>35000</v>
       </c>
       <c r="G68" t="n">
-        <v>-1787057.0703</v>
+        <v>6.479999999999995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2826,6 +2897,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2847,7 +2919,7 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-1787047.0703</v>
+        <v>6.469999999999994</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2865,6 +2937,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2886,7 +2959,7 @@
         <v>396.2137</v>
       </c>
       <c r="G70" t="n">
-        <v>-1787047.0703</v>
+        <v>6.459999999999994</v>
       </c>
       <c r="H70" t="n">
         <v>1</v>
@@ -2906,6 +2979,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2927,7 +3001,7 @@
         <v>200</v>
       </c>
       <c r="G71" t="n">
-        <v>-1787047.0703</v>
+        <v>6.459499999999993</v>
       </c>
       <c r="H71" t="n">
         <v>1</v>
@@ -2947,6 +3021,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2968,7 +3043,7 @@
         <v>705.0531</v>
       </c>
       <c r="G72" t="n">
-        <v>-1787047.0703</v>
+        <v>6.449499999999992</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2986,6 +3061,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3007,7 +3083,7 @@
         <v>31279.62</v>
       </c>
       <c r="G73" t="n">
-        <v>-1818326.6903</v>
+        <v>6.441999999999993</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3025,6 +3101,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3046,7 +3123,7 @@
         <v>331.711</v>
       </c>
       <c r="G74" t="n">
-        <v>-1818658.4013</v>
+        <v>6.433999999999993</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3064,6 +3141,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3085,7 +3163,7 @@
         <v>19625.4331</v>
       </c>
       <c r="G75" t="n">
-        <v>-1818658.4013</v>
+        <v>6.427999999999993</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3103,6 +3181,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3124,7 +3203,7 @@
         <v>94.9469</v>
       </c>
       <c r="G76" t="n">
-        <v>-1818563.454399999</v>
+        <v>6.430499999999992</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3142,6 +3221,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3163,7 +3243,7 @@
         <v>102000</v>
       </c>
       <c r="G77" t="n">
-        <v>-1818563.454399999</v>
+        <v>6.430499999999992</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3181,6 +3261,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3202,7 +3283,7 @@
         <v>72166.3579</v>
       </c>
       <c r="G78" t="n">
-        <v>-1818563.454399999</v>
+        <v>6.430499999999992</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3220,6 +3301,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3241,7 +3323,7 @@
         <v>603.1643</v>
       </c>
       <c r="G79" t="n">
-        <v>-1818563.454399999</v>
+        <v>6.430499999999992</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3259,6 +3341,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3280,7 +3363,7 @@
         <v>6346.775</v>
       </c>
       <c r="G80" t="n">
-        <v>-1824910.229399999</v>
+        <v>6.428499999999993</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3298,6 +3381,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3319,7 +3403,7 @@
         <v>79221.1263</v>
       </c>
       <c r="G81" t="n">
-        <v>-1904131.355699999</v>
+        <v>6.422999999999993</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3337,6 +3421,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3358,7 +3443,7 @@
         <v>120701</v>
       </c>
       <c r="G82" t="n">
-        <v>-2024832.355699999</v>
+        <v>6.420499999999994</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3376,6 +3461,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3397,7 +3483,7 @@
         <v>10</v>
       </c>
       <c r="G83" t="n">
-        <v>-2024822.355699999</v>
+        <v>6.425999999999995</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3415,6 +3501,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3436,7 +3523,7 @@
         <v>126098.7555</v>
       </c>
       <c r="G84" t="n">
-        <v>-2150921.111199999</v>
+        <v>6.420499999999995</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3454,6 +3541,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3475,7 +3563,7 @@
         <v>401.0015</v>
       </c>
       <c r="G85" t="n">
-        <v>-2150520.109699999</v>
+        <v>6.431499999999995</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3493,6 +3581,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3514,7 +3603,7 @@
         <v>100.4265</v>
       </c>
       <c r="G86" t="n">
-        <v>-2150620.5362</v>
+        <v>6.424499999999997</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3532,6 +3621,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3553,7 +3643,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="n">
-        <v>-2150610.5362</v>
+        <v>6.431499999999997</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3571,6 +3661,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3592,7 +3683,7 @@
         <v>71130.40119999999</v>
       </c>
       <c r="G88" t="n">
-        <v>-2221740.9374</v>
+        <v>6.432999999999997</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3610,6 +3701,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3631,7 +3723,7 @@
         <v>199.4428</v>
       </c>
       <c r="G89" t="n">
-        <v>-2221541.4946</v>
+        <v>6.439999999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3649,6 +3741,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3670,7 +3763,7 @@
         <v>10607.712</v>
       </c>
       <c r="G90" t="n">
-        <v>-2232149.2066</v>
+        <v>6.438499999999998</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3688,6 +3781,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3709,7 +3803,7 @@
         <v>10</v>
       </c>
       <c r="G91" t="n">
-        <v>-2232139.2066</v>
+        <v>6.442499999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3727,6 +3821,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3748,7 +3843,7 @@
         <v>180000</v>
       </c>
       <c r="G92" t="n">
-        <v>-2412139.2066</v>
+        <v>6.4415</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3766,6 +3861,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3787,7 +3883,7 @@
         <v>35000</v>
       </c>
       <c r="G93" t="n">
-        <v>-2377139.2066</v>
+        <v>6.450999999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3805,6 +3901,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3826,7 +3923,7 @@
         <v>94435.9975</v>
       </c>
       <c r="G94" t="n">
-        <v>-2282703.2091</v>
+        <v>6.461999999999999</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3844,6 +3941,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3865,7 +3963,7 @@
         <v>7468.3106</v>
       </c>
       <c r="G95" t="n">
-        <v>-2275234.8985</v>
+        <v>6.477499999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3883,6 +3981,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3904,7 +4003,7 @@
         <v>4403.7254</v>
       </c>
       <c r="G96" t="n">
-        <v>-2275234.8985</v>
+        <v>6.484999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3922,6 +4021,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3943,7 +4043,7 @@
         <v>32100</v>
       </c>
       <c r="G97" t="n">
-        <v>-2243134.8985</v>
+        <v>6.4925</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
@@ -3963,6 +4063,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3984,7 +4085,7 @@
         <v>848.3573</v>
       </c>
       <c r="G98" t="n">
-        <v>-2243983.255799999</v>
+        <v>6.491</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4002,6 +4103,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4023,7 +4125,7 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>-2243973.255799999</v>
+        <v>6.4995</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
@@ -4043,6 +4145,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4064,7 +4167,7 @@
         <v>35956.9924</v>
       </c>
       <c r="G100" t="n">
-        <v>-2243973.255799999</v>
+        <v>6.513000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
@@ -4084,6 +4187,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4105,7 +4209,7 @@
         <v>775.7903</v>
       </c>
       <c r="G101" t="n">
-        <v>-2243973.255799999</v>
+        <v>6.527000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4123,6 +4227,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4144,7 +4249,7 @@
         <v>2143.7774</v>
       </c>
       <c r="G102" t="n">
-        <v>-2246117.033199999</v>
+        <v>6.531500000000001</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4162,6 +4267,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4183,7 +4289,7 @@
         <v>143.7774</v>
       </c>
       <c r="G103" t="n">
-        <v>-2245973.255799999</v>
+        <v>6.537000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4201,6 +4307,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4222,7 +4329,7 @@
         <v>173.3332</v>
       </c>
       <c r="G104" t="n">
-        <v>-2245973.255799999</v>
+        <v>6.5505</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4240,6 +4347,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4261,7 +4369,7 @@
         <v>266.6664</v>
       </c>
       <c r="G105" t="n">
-        <v>-2245973.255799999</v>
+        <v>6.555999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4279,6 +4387,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4300,7 +4409,7 @@
         <v>1560.0004</v>
       </c>
       <c r="G106" t="n">
-        <v>-2245973.255799999</v>
+        <v>6.570999999999998</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4318,6 +4427,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4339,7 +4449,7 @@
         <v>197.7776</v>
       </c>
       <c r="G107" t="n">
-        <v>-2245775.478199999</v>
+        <v>6.572499999999998</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4357,6 +4467,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6.54</v>
+        <v>6.72</v>
       </c>
       <c r="C2" t="n">
-        <v>6.52</v>
+        <v>6.57</v>
       </c>
       <c r="D2" t="n">
-        <v>6.54</v>
+        <v>6.72</v>
       </c>
       <c r="E2" t="n">
-        <v>6.52</v>
+        <v>6.57</v>
       </c>
       <c r="F2" t="n">
-        <v>51389.4872</v>
+        <v>39.95</v>
       </c>
       <c r="G2" t="n">
-        <v>6.636500000000003</v>
+        <v>-816641.5724999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6.51</v>
+        <v>6.71</v>
       </c>
       <c r="C3" t="n">
-        <v>6.46</v>
+        <v>6.71</v>
       </c>
       <c r="D3" t="n">
-        <v>6.51</v>
+        <v>6.71</v>
       </c>
       <c r="E3" t="n">
-        <v>6.46</v>
+        <v>6.71</v>
       </c>
       <c r="F3" t="n">
-        <v>171953.709</v>
+        <v>16092.921</v>
       </c>
       <c r="G3" t="n">
-        <v>6.628000000000003</v>
+        <v>-800548.6514999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.45</v>
+        <v>6.77</v>
       </c>
       <c r="C4" t="n">
-        <v>6.45</v>
+        <v>6.77</v>
       </c>
       <c r="D4" t="n">
-        <v>6.45</v>
+        <v>6.77</v>
       </c>
       <c r="E4" t="n">
-        <v>6.45</v>
+        <v>6.77</v>
       </c>
       <c r="F4" t="n">
-        <v>65608.46000000001</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>6.624500000000002</v>
+        <v>-800538.6514999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="C5" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="D5" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="E5" t="n">
-        <v>6.67</v>
+        <v>6.75</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>11962.7031</v>
       </c>
       <c r="G5" t="n">
-        <v>6.624000000000001</v>
+        <v>-812501.3546</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="C6" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="D6" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="E6" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="F6" t="n">
-        <v>30000</v>
+        <v>3957.0311</v>
       </c>
       <c r="G6" t="n">
-        <v>6.637</v>
+        <v>-816458.3857</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.51</v>
+        <v>6.74</v>
       </c>
       <c r="C7" t="n">
-        <v>6.59</v>
+        <v>6.7</v>
       </c>
       <c r="D7" t="n">
-        <v>6.59</v>
+        <v>6.74</v>
       </c>
       <c r="E7" t="n">
-        <v>6.51</v>
+        <v>6.7</v>
       </c>
       <c r="F7" t="n">
-        <v>2334.3102</v>
+        <v>15792.3718</v>
       </c>
       <c r="G7" t="n">
-        <v>6.644499999999999</v>
+        <v>-816458.3857</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="C8" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="D8" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="E8" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="F8" t="n">
-        <v>20000</v>
+        <v>6280.7922</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6485</v>
+        <v>-822739.1779</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="C9" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="D9" t="n">
-        <v>6.7</v>
+        <v>6.69</v>
       </c>
       <c r="E9" t="n">
-        <v>6.59</v>
+        <v>6.69</v>
       </c>
       <c r="F9" t="n">
-        <v>9486.016</v>
+        <v>6280.7174</v>
       </c>
       <c r="G9" t="n">
-        <v>6.660500000000001</v>
+        <v>-822739.1779</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6.59</v>
+        <v>6.67</v>
       </c>
       <c r="C10" t="n">
-        <v>6.59</v>
+        <v>6.67</v>
       </c>
       <c r="D10" t="n">
-        <v>6.59</v>
+        <v>6.67</v>
       </c>
       <c r="E10" t="n">
-        <v>6.59</v>
+        <v>6.67</v>
       </c>
       <c r="F10" t="n">
-        <v>20000</v>
+        <v>9115.5892</v>
       </c>
       <c r="G10" t="n">
-        <v>6.657500000000001</v>
+        <v>-831854.7671000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>6.65</v>
+        <v>6.57</v>
       </c>
       <c r="C11" t="n">
-        <v>6.78</v>
+        <v>6.57</v>
       </c>
       <c r="D11" t="n">
-        <v>6.78</v>
+        <v>6.57</v>
       </c>
       <c r="E11" t="n">
-        <v>6.65</v>
+        <v>6.57</v>
       </c>
       <c r="F11" t="n">
-        <v>270961.1891</v>
+        <v>5538.8127</v>
       </c>
       <c r="G11" t="n">
-        <v>6.654500000000001</v>
+        <v>-837393.5798000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.79</v>
+        <v>6.68</v>
       </c>
       <c r="C12" t="n">
-        <v>6.79</v>
+        <v>6.68</v>
       </c>
       <c r="D12" t="n">
-        <v>6.79</v>
+        <v>6.68</v>
       </c>
       <c r="E12" t="n">
-        <v>6.79</v>
+        <v>6.68</v>
       </c>
       <c r="F12" t="n">
-        <v>280245.8324</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>6.659999999999999</v>
+        <v>-837383.5798000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>6.8</v>
+        <v>6.52</v>
       </c>
       <c r="C13" t="n">
-        <v>6.8</v>
+        <v>6.52</v>
       </c>
       <c r="D13" t="n">
-        <v>6.8</v>
+        <v>6.52</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8</v>
+        <v>6.52</v>
       </c>
       <c r="F13" t="n">
-        <v>254.8985</v>
+        <v>37800.7767</v>
       </c>
       <c r="G13" t="n">
-        <v>6.665999999999999</v>
+        <v>-875184.3565000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>6.81</v>
+        <v>6.68</v>
       </c>
       <c r="C14" t="n">
-        <v>6.81</v>
+        <v>6.69</v>
       </c>
       <c r="D14" t="n">
-        <v>6.81</v>
+        <v>6.69</v>
       </c>
       <c r="E14" t="n">
-        <v>6.81</v>
+        <v>6.68</v>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>45.54</v>
       </c>
       <c r="G14" t="n">
-        <v>6.672499999999999</v>
+        <v>-875138.8165000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>6.8</v>
+        <v>6.37</v>
       </c>
       <c r="C15" t="n">
-        <v>6.81</v>
+        <v>6.65</v>
       </c>
       <c r="D15" t="n">
-        <v>6.81</v>
+        <v>6.65</v>
       </c>
       <c r="E15" t="n">
-        <v>6.8</v>
+        <v>6.37</v>
       </c>
       <c r="F15" t="n">
-        <v>50021.4545</v>
+        <v>25.1736</v>
       </c>
       <c r="G15" t="n">
-        <v>6.6785</v>
+        <v>-875163.9901000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>6.81</v>
+        <v>6.36</v>
       </c>
       <c r="C16" t="n">
-        <v>6.85</v>
+        <v>6.34</v>
       </c>
       <c r="D16" t="n">
-        <v>6.85</v>
+        <v>6.36</v>
       </c>
       <c r="E16" t="n">
-        <v>6.81</v>
+        <v>6.34</v>
       </c>
       <c r="F16" t="n">
-        <v>20810</v>
+        <v>189882.4318</v>
       </c>
       <c r="G16" t="n">
-        <v>6.681999999999999</v>
+        <v>-1065046.4219</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>6.85</v>
+        <v>6.51</v>
       </c>
       <c r="C17" t="n">
-        <v>6.85</v>
+        <v>6.51</v>
       </c>
       <c r="D17" t="n">
-        <v>6.85</v>
+        <v>6.51</v>
       </c>
       <c r="E17" t="n">
-        <v>6.85</v>
+        <v>6.51</v>
       </c>
       <c r="F17" t="n">
-        <v>80720.72990000001</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>6.685499999999999</v>
+        <v>-1065036.4219</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>6.85</v>
+        <v>6.35</v>
       </c>
       <c r="C18" t="n">
-        <v>6.85</v>
+        <v>6.5</v>
       </c>
       <c r="D18" t="n">
-        <v>6.85</v>
+        <v>6.5</v>
       </c>
       <c r="E18" t="n">
-        <v>6.85</v>
+        <v>6.35</v>
       </c>
       <c r="F18" t="n">
-        <v>130987.4674</v>
+        <v>2493.775</v>
       </c>
       <c r="G18" t="n">
-        <v>6.688999999999998</v>
+        <v>-1067530.1969</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="C19" t="n">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="D19" t="n">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="E19" t="n">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="F19" t="n">
-        <v>254.0145</v>
+        <v>9269.8344</v>
       </c>
       <c r="G19" t="n">
-        <v>6.692499999999998</v>
+        <v>-1058260.3625</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>6.85</v>
+        <v>6.71</v>
       </c>
       <c r="C20" t="n">
-        <v>6.85</v>
+        <v>6.71</v>
       </c>
       <c r="D20" t="n">
-        <v>6.85</v>
+        <v>6.71</v>
       </c>
       <c r="E20" t="n">
-        <v>6.85</v>
+        <v>6.71</v>
       </c>
       <c r="F20" t="n">
-        <v>218.8126</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>6.695999999999998</v>
+        <v>-1058250.3625</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="C21" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="D21" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="E21" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="F21" t="n">
-        <v>98.8888</v>
+        <v>34639.2516</v>
       </c>
       <c r="G21" t="n">
-        <v>6.699499999999998</v>
+        <v>-1092889.6141</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="C22" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="D22" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="E22" t="n">
-        <v>6.85</v>
+        <v>6.68</v>
       </c>
       <c r="F22" t="n">
-        <v>98.8888</v>
+        <v>16393.3831</v>
       </c>
       <c r="G22" t="n">
-        <v>6.714999999999998</v>
+        <v>-1092889.6141</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="C23" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="D23" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="E23" t="n">
-        <v>6.66</v>
+        <v>6.68</v>
       </c>
       <c r="F23" t="n">
-        <v>2477.5656</v>
+        <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>6.722499999999998</v>
+        <v>-1092889.6141</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.84</v>
+        <v>6.68</v>
       </c>
       <c r="C24" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="D24" t="n">
-        <v>6.84</v>
+        <v>6.73</v>
       </c>
       <c r="E24" t="n">
-        <v>6.84</v>
+        <v>6.68</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>124980.4257</v>
       </c>
       <c r="G24" t="n">
-        <v>6.741999999999999</v>
+        <v>-967909.1883999999</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>6.84</v>
+        <v>6.74</v>
       </c>
       <c r="C25" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="D25" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="E25" t="n">
-        <v>6.84</v>
+        <v>6.74</v>
       </c>
       <c r="F25" t="n">
-        <v>88.8888</v>
+        <v>163971.2305</v>
       </c>
       <c r="G25" t="n">
-        <v>6.7505</v>
+        <v>-803937.9578999998</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="C26" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="D26" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="E26" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="F26" t="n">
-        <v>2495.6202</v>
+        <v>11402.581</v>
       </c>
       <c r="G26" t="n">
-        <v>6.761</v>
+        <v>-803937.9578999998</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="C27" t="n">
-        <v>6.84</v>
+        <v>6.47</v>
       </c>
       <c r="D27" t="n">
-        <v>6.84</v>
+        <v>6.78</v>
       </c>
       <c r="E27" t="n">
-        <v>6.84</v>
+        <v>6.47</v>
       </c>
       <c r="F27" t="n">
-        <v>7000.14</v>
+        <v>39.95</v>
       </c>
       <c r="G27" t="n">
-        <v>6.777500000000001</v>
+        <v>-803977.9078999998</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="C28" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="D28" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="E28" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="F28" t="n">
-        <v>7320.937</v>
+        <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>6.789500000000001</v>
+        <v>-803967.9078999998</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="C29" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="D29" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="E29" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="F29" t="n">
-        <v>2679.063</v>
+        <v>1157.8171</v>
       </c>
       <c r="G29" t="n">
-        <v>6.801500000000002</v>
+        <v>-803967.9078999998</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="C30" t="n">
-        <v>6.83</v>
+        <v>6.51</v>
       </c>
       <c r="D30" t="n">
-        <v>6.83</v>
+        <v>6.78</v>
       </c>
       <c r="E30" t="n">
-        <v>6.83</v>
+        <v>6.51</v>
       </c>
       <c r="F30" t="n">
-        <v>4651.874</v>
+        <v>39.95</v>
       </c>
       <c r="G30" t="n">
-        <v>6.813500000000002</v>
+        <v>-804007.8578999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>6.68</v>
+        <v>6.54</v>
       </c>
       <c r="C31" t="n">
-        <v>6.68</v>
+        <v>6.52</v>
       </c>
       <c r="D31" t="n">
-        <v>6.68</v>
+        <v>6.54</v>
       </c>
       <c r="E31" t="n">
-        <v>6.68</v>
+        <v>6.52</v>
       </c>
       <c r="F31" t="n">
-        <v>28742</v>
+        <v>51389.4872</v>
       </c>
       <c r="G31" t="n">
-        <v>6.815000000000002</v>
+        <v>-752618.3706999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.81</v>
+        <v>6.51</v>
       </c>
       <c r="C32" t="n">
-        <v>6.81</v>
+        <v>6.46</v>
       </c>
       <c r="D32" t="n">
-        <v>6.81</v>
+        <v>6.51</v>
       </c>
       <c r="E32" t="n">
-        <v>6.81</v>
+        <v>6.46</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>171953.709</v>
       </c>
       <c r="G32" t="n">
-        <v>6.816000000000003</v>
+        <v>-924572.0796999998</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,28 +1554,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="C33" t="n">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="D33" t="n">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="E33" t="n">
-        <v>6.68</v>
+        <v>6.45</v>
       </c>
       <c r="F33" t="n">
-        <v>59997.3053</v>
+        <v>65608.46000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>6.810000000000002</v>
+        <v>-990180.5396999997</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
@@ -1602,16 +1602,16 @@
         <v>6.67</v>
       </c>
       <c r="F34" t="n">
-        <v>41000</v>
+        <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>6.803000000000002</v>
+        <v>-990170.5396999997</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
@@ -1626,28 +1626,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="C35" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="D35" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="E35" t="n">
-        <v>6.62</v>
+        <v>6.63</v>
       </c>
       <c r="F35" t="n">
-        <v>15105.7401</v>
+        <v>30000</v>
       </c>
       <c r="G35" t="n">
-        <v>6.794000000000001</v>
+        <v>-1020170.5397</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>6.61</v>
+        <v>6.51</v>
       </c>
       <c r="C36" t="n">
-        <v>6.34</v>
+        <v>6.59</v>
       </c>
       <c r="D36" t="n">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="E36" t="n">
-        <v>6.34</v>
+        <v>6.51</v>
       </c>
       <c r="F36" t="n">
-        <v>502637.4985</v>
+        <v>2334.3102</v>
       </c>
       <c r="G36" t="n">
-        <v>6.784000000000002</v>
+        <v>-1022504.8499</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.41</v>
+        <v>6.59</v>
       </c>
       <c r="C37" t="n">
-        <v>6.41</v>
+        <v>6.59</v>
       </c>
       <c r="D37" t="n">
-        <v>6.41</v>
+        <v>6.59</v>
       </c>
       <c r="E37" t="n">
-        <v>6.41</v>
+        <v>6.59</v>
       </c>
       <c r="F37" t="n">
-        <v>20005</v>
+        <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>6.762000000000002</v>
+        <v>-1022504.8499</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>6.79</v>
+        <v>6.59</v>
       </c>
       <c r="C38" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="D38" t="n">
-        <v>6.79</v>
+        <v>6.7</v>
       </c>
       <c r="E38" t="n">
-        <v>6.79</v>
+        <v>6.59</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>9486.016</v>
       </c>
       <c r="G38" t="n">
-        <v>6.759000000000002</v>
+        <v>-1013018.8339</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>6.42</v>
+        <v>6.59</v>
       </c>
       <c r="C39" t="n">
-        <v>6.42</v>
+        <v>6.59</v>
       </c>
       <c r="D39" t="n">
-        <v>6.42</v>
+        <v>6.59</v>
       </c>
       <c r="E39" t="n">
-        <v>6.42</v>
+        <v>6.59</v>
       </c>
       <c r="F39" t="n">
-        <v>2592.09</v>
+        <v>20000</v>
       </c>
       <c r="G39" t="n">
-        <v>6.737500000000002</v>
+        <v>-1033018.8339</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="C40" t="n">
-        <v>6.72</v>
+        <v>6.78</v>
       </c>
       <c r="D40" t="n">
-        <v>6.72</v>
+        <v>6.78</v>
       </c>
       <c r="E40" t="n">
-        <v>6.72</v>
+        <v>6.65</v>
       </c>
       <c r="F40" t="n">
-        <v>257.4479</v>
+        <v>270961.1891</v>
       </c>
       <c r="G40" t="n">
-        <v>6.731000000000002</v>
+        <v>-762057.6447999997</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="C41" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="D41" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="E41" t="n">
-        <v>6.72</v>
+        <v>6.79</v>
       </c>
       <c r="F41" t="n">
-        <v>49243.331</v>
+        <v>280245.8324</v>
       </c>
       <c r="G41" t="n">
-        <v>6.724500000000002</v>
+        <v>-481811.8123999996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>6.73</v>
+        <v>6.8</v>
       </c>
       <c r="C42" t="n">
-        <v>6.73</v>
+        <v>6.8</v>
       </c>
       <c r="D42" t="n">
-        <v>6.73</v>
+        <v>6.8</v>
       </c>
       <c r="E42" t="n">
-        <v>6.73</v>
+        <v>6.8</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>254.8985</v>
       </c>
       <c r="G42" t="n">
-        <v>6.718500000000001</v>
+        <v>-481556.9138999996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>6.5</v>
+        <v>6.81</v>
       </c>
       <c r="C43" t="n">
-        <v>6.5</v>
+        <v>6.81</v>
       </c>
       <c r="D43" t="n">
-        <v>6.5</v>
+        <v>6.81</v>
       </c>
       <c r="E43" t="n">
-        <v>6.5</v>
+        <v>6.81</v>
       </c>
       <c r="F43" t="n">
-        <v>3032.0162</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>6.710500000000001</v>
+        <v>-481546.9138999996</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>6.72</v>
+        <v>6.8</v>
       </c>
       <c r="C44" t="n">
-        <v>6.72</v>
+        <v>6.81</v>
       </c>
       <c r="D44" t="n">
-        <v>6.72</v>
+        <v>6.81</v>
       </c>
       <c r="E44" t="n">
-        <v>6.72</v>
+        <v>6.8</v>
       </c>
       <c r="F44" t="n">
-        <v>10</v>
+        <v>50021.4545</v>
       </c>
       <c r="G44" t="n">
-        <v>6.704500000000001</v>
+        <v>-481546.9138999996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>6.72</v>
+        <v>6.81</v>
       </c>
       <c r="C45" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="D45" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="E45" t="n">
-        <v>6.72</v>
+        <v>6.81</v>
       </c>
       <c r="F45" t="n">
-        <v>3022.016</v>
+        <v>20810</v>
       </c>
       <c r="G45" t="n">
-        <v>6.698500000000001</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="C46" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="D46" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="E46" t="n">
-        <v>6.72</v>
+        <v>6.85</v>
       </c>
       <c r="F46" t="n">
-        <v>37756.2578</v>
+        <v>80720.72990000001</v>
       </c>
       <c r="G46" t="n">
-        <v>6.692500000000001</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.67</v>
+        <v>6.85</v>
       </c>
       <c r="C47" t="n">
-        <v>6.67</v>
+        <v>6.85</v>
       </c>
       <c r="D47" t="n">
-        <v>6.67</v>
+        <v>6.85</v>
       </c>
       <c r="E47" t="n">
-        <v>6.67</v>
+        <v>6.85</v>
       </c>
       <c r="F47" t="n">
-        <v>577.2988</v>
+        <v>130987.4674</v>
       </c>
       <c r="G47" t="n">
-        <v>6.684</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="C48" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="D48" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="E48" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="F48" t="n">
-        <v>26053.4805</v>
+        <v>254.0145</v>
       </c>
       <c r="G48" t="n">
-        <v>6.6765</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="C49" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="D49" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="E49" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="F49" t="n">
-        <v>2172.6764</v>
+        <v>218.8126</v>
       </c>
       <c r="G49" t="n">
-        <v>6.669</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="C50" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="D50" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="E50" t="n">
-        <v>6.68</v>
+        <v>6.85</v>
       </c>
       <c r="F50" t="n">
-        <v>430</v>
+        <v>98.8888</v>
       </c>
       <c r="G50" t="n">
-        <v>6.661499999999999</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>6.49</v>
+        <v>6.85</v>
       </c>
       <c r="C51" t="n">
-        <v>6.49</v>
+        <v>6.85</v>
       </c>
       <c r="D51" t="n">
-        <v>6.49</v>
+        <v>6.85</v>
       </c>
       <c r="E51" t="n">
-        <v>6.49</v>
+        <v>6.85</v>
       </c>
       <c r="F51" t="n">
-        <v>10100</v>
+        <v>98.8888</v>
       </c>
       <c r="G51" t="n">
-        <v>6.651999999999999</v>
+        <v>-460736.9138999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>6.68</v>
+        <v>6.66</v>
       </c>
       <c r="C52" t="n">
-        <v>6.68</v>
+        <v>6.66</v>
       </c>
       <c r="D52" t="n">
-        <v>6.68</v>
+        <v>6.66</v>
       </c>
       <c r="E52" t="n">
-        <v>6.68</v>
+        <v>6.66</v>
       </c>
       <c r="F52" t="n">
-        <v>789.8577</v>
+        <v>2477.5656</v>
       </c>
       <c r="G52" t="n">
-        <v>6.6455</v>
+        <v>-463214.4794999996</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="C53" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="D53" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="E53" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="F53" t="n">
-        <v>40000</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>6.635499999999999</v>
+        <v>-463204.4794999996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="C54" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="D54" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="E54" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="F54" t="n">
-        <v>10100</v>
+        <v>88.8888</v>
       </c>
       <c r="G54" t="n">
-        <v>6.625999999999999</v>
+        <v>-463204.4794999996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>6.44</v>
+        <v>6.84</v>
       </c>
       <c r="C55" t="n">
-        <v>6.44</v>
+        <v>6.84</v>
       </c>
       <c r="D55" t="n">
-        <v>6.44</v>
+        <v>6.84</v>
       </c>
       <c r="E55" t="n">
-        <v>6.44</v>
+        <v>6.84</v>
       </c>
       <c r="F55" t="n">
-        <v>155185.7584</v>
+        <v>2495.6202</v>
       </c>
       <c r="G55" t="n">
-        <v>6.616999999999999</v>
+        <v>-463204.4794999996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.43</v>
+        <v>6.84</v>
       </c>
       <c r="C56" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="D56" t="n">
-        <v>6.48</v>
+        <v>6.84</v>
       </c>
       <c r="E56" t="n">
-        <v>6.43</v>
+        <v>6.84</v>
       </c>
       <c r="F56" t="n">
-        <v>182613.0251</v>
+        <v>7000.14</v>
       </c>
       <c r="G56" t="n">
-        <v>6.607999999999999</v>
+        <v>-463204.4794999996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,38 +2418,32 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="C57" t="n">
-        <v>6.42</v>
+        <v>6.83</v>
       </c>
       <c r="D57" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="E57" t="n">
-        <v>6.42</v>
+        <v>6.83</v>
       </c>
       <c r="F57" t="n">
-        <v>420929.8388</v>
+        <v>7320.937</v>
       </c>
       <c r="G57" t="n">
-        <v>6.611499999999998</v>
+        <v>-470525.4164999996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>6.48</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="C58" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="D58" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="E58" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="F58" t="n">
-        <v>19583.2561</v>
+        <v>2679.063</v>
       </c>
       <c r="G58" t="n">
-        <v>6.595999999999998</v>
+        <v>-470525.4164999996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2485,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2500,36 +2490,32 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="C59" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="D59" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="E59" t="n">
-        <v>6.48</v>
+        <v>6.83</v>
       </c>
       <c r="F59" t="n">
-        <v>5000</v>
+        <v>4651.874</v>
       </c>
       <c r="G59" t="n">
-        <v>6.598999999999998</v>
+        <v>-470525.4164999996</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2540,36 +2526,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="C60" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="D60" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="E60" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="F60" t="n">
-        <v>3500</v>
+        <v>28742</v>
       </c>
       <c r="G60" t="n">
-        <v>6.583999999999998</v>
+        <v>-499267.4164999996</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2580,36 +2562,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>6.48</v>
+        <v>6.81</v>
       </c>
       <c r="C61" t="n">
-        <v>6.48</v>
+        <v>6.81</v>
       </c>
       <c r="D61" t="n">
-        <v>6.48</v>
+        <v>6.81</v>
       </c>
       <c r="E61" t="n">
-        <v>6.48</v>
+        <v>6.81</v>
       </c>
       <c r="F61" t="n">
-        <v>578.3436</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>6.571999999999997</v>
+        <v>-499257.4164999996</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2620,36 +2598,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="C62" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="D62" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="E62" t="n">
-        <v>6.42</v>
+        <v>6.68</v>
       </c>
       <c r="F62" t="n">
-        <v>1839</v>
+        <v>59997.3053</v>
       </c>
       <c r="G62" t="n">
-        <v>6.556499999999997</v>
+        <v>-559254.7217999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2660,36 +2634,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>6.42</v>
+        <v>6.67</v>
       </c>
       <c r="C63" t="n">
-        <v>6.31</v>
+        <v>6.67</v>
       </c>
       <c r="D63" t="n">
-        <v>6.42</v>
+        <v>6.67</v>
       </c>
       <c r="E63" t="n">
-        <v>6.31</v>
+        <v>6.67</v>
       </c>
       <c r="F63" t="n">
-        <v>231819.5238</v>
+        <v>41000</v>
       </c>
       <c r="G63" t="n">
-        <v>6.552499999999997</v>
+        <v>-600254.7217999996</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2700,38 +2670,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>6.48</v>
+        <v>6.62</v>
       </c>
       <c r="C64" t="n">
-        <v>6.48</v>
+        <v>6.62</v>
       </c>
       <c r="D64" t="n">
-        <v>6.48</v>
+        <v>6.62</v>
       </c>
       <c r="E64" t="n">
-        <v>6.48</v>
+        <v>6.62</v>
       </c>
       <c r="F64" t="n">
-        <v>550.3163</v>
+        <v>15105.7401</v>
       </c>
       <c r="G64" t="n">
-        <v>6.540499999999996</v>
+        <v>-615360.4618999996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>6.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2742,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>6.31</v>
+        <v>6.61</v>
       </c>
       <c r="C65" t="n">
-        <v>6.31</v>
+        <v>6.34</v>
       </c>
       <c r="D65" t="n">
-        <v>6.31</v>
+        <v>6.61</v>
       </c>
       <c r="E65" t="n">
-        <v>6.31</v>
+        <v>6.34</v>
       </c>
       <c r="F65" t="n">
-        <v>16793.3111</v>
+        <v>502637.4985</v>
       </c>
       <c r="G65" t="n">
-        <v>6.519999999999996</v>
+        <v>-1117997.9604</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2767,11 +2731,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2782,38 +2742,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.48</v>
+        <v>6.41</v>
       </c>
       <c r="C66" t="n">
-        <v>6.48</v>
+        <v>6.41</v>
       </c>
       <c r="D66" t="n">
-        <v>6.48</v>
+        <v>6.41</v>
       </c>
       <c r="E66" t="n">
-        <v>6.48</v>
+        <v>6.41</v>
       </c>
       <c r="F66" t="n">
-        <v>10</v>
+        <v>20005</v>
       </c>
       <c r="G66" t="n">
-        <v>6.507999999999996</v>
+        <v>-1097992.9604</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>6.31</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2824,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>6.48</v>
+        <v>6.79</v>
       </c>
       <c r="C67" t="n">
-        <v>6.48</v>
+        <v>6.79</v>
       </c>
       <c r="D67" t="n">
-        <v>6.48</v>
+        <v>6.79</v>
       </c>
       <c r="E67" t="n">
-        <v>6.48</v>
+        <v>6.79</v>
       </c>
       <c r="F67" t="n">
-        <v>32.8703</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>6.498499999999996</v>
+        <v>-1097982.9604</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2849,11 +2803,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2864,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="C68" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="D68" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="E68" t="n">
-        <v>6.31</v>
+        <v>6.42</v>
       </c>
       <c r="F68" t="n">
-        <v>35000</v>
+        <v>2592.09</v>
       </c>
       <c r="G68" t="n">
-        <v>6.479999999999995</v>
+        <v>-1100575.0504</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2889,11 +2839,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="C69" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="D69" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="E69" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>257.4479</v>
       </c>
       <c r="G69" t="n">
-        <v>6.469999999999994</v>
+        <v>-1100317.6025</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2929,11 +2875,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2944,38 +2886,32 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="C70" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="D70" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="E70" t="n">
-        <v>6.48</v>
+        <v>6.72</v>
       </c>
       <c r="F70" t="n">
-        <v>396.2137</v>
+        <v>49243.331</v>
       </c>
       <c r="G70" t="n">
-        <v>6.459999999999994</v>
+        <v>-1100317.6025</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>6.48</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2986,38 +2922,32 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>6.48</v>
+        <v>6.73</v>
       </c>
       <c r="C71" t="n">
-        <v>6.48</v>
+        <v>6.73</v>
       </c>
       <c r="D71" t="n">
-        <v>6.48</v>
+        <v>6.73</v>
       </c>
       <c r="E71" t="n">
-        <v>6.48</v>
+        <v>6.73</v>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>6.459499999999993</v>
+        <v>-1100307.6025</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>6.48</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3028,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="C72" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="D72" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="E72" t="n">
-        <v>6.48</v>
+        <v>6.5</v>
       </c>
       <c r="F72" t="n">
-        <v>705.0531</v>
+        <v>3032.0162</v>
       </c>
       <c r="G72" t="n">
-        <v>6.449499999999992</v>
+        <v>-1103339.6187</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3053,11 +2983,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3068,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>6.33</v>
+        <v>6.72</v>
       </c>
       <c r="C73" t="n">
-        <v>6.33</v>
+        <v>6.72</v>
       </c>
       <c r="D73" t="n">
-        <v>6.33</v>
+        <v>6.72</v>
       </c>
       <c r="E73" t="n">
-        <v>6.33</v>
+        <v>6.72</v>
       </c>
       <c r="F73" t="n">
-        <v>31279.62</v>
+        <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>6.441999999999993</v>
+        <v>-1103329.6187</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3093,11 +3019,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3108,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="C74" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="D74" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="E74" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="F74" t="n">
-        <v>331.711</v>
+        <v>3022.016</v>
       </c>
       <c r="G74" t="n">
-        <v>6.433999999999993</v>
+        <v>-1103329.6187</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3133,11 +3055,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3148,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="C75" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="D75" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="E75" t="n">
-        <v>6.32</v>
+        <v>6.72</v>
       </c>
       <c r="F75" t="n">
-        <v>19625.4331</v>
+        <v>37756.2578</v>
       </c>
       <c r="G75" t="n">
-        <v>6.427999999999993</v>
+        <v>-1103329.6187</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3173,11 +3091,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3188,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
       <c r="C76" t="n">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
       <c r="D76" t="n">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
       <c r="E76" t="n">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
       <c r="F76" t="n">
-        <v>94.9469</v>
+        <v>577.2988</v>
       </c>
       <c r="G76" t="n">
-        <v>6.430499999999992</v>
+        <v>-1103906.9175</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3213,11 +3127,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3228,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="C77" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="D77" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="E77" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="F77" t="n">
-        <v>102000</v>
+        <v>26053.4805</v>
       </c>
       <c r="G77" t="n">
-        <v>6.430499999999992</v>
+        <v>-1077853.437</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3253,11 +3163,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3268,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="C78" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="D78" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="E78" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="F78" t="n">
-        <v>72166.3579</v>
+        <v>2172.6764</v>
       </c>
       <c r="G78" t="n">
-        <v>6.430499999999992</v>
+        <v>-1077853.437</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3293,11 +3199,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3308,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="C79" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="D79" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="E79" t="n">
-        <v>6.48</v>
+        <v>6.68</v>
       </c>
       <c r="F79" t="n">
-        <v>603.1643</v>
+        <v>430</v>
       </c>
       <c r="G79" t="n">
-        <v>6.430499999999992</v>
+        <v>-1077853.437</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3333,11 +3235,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3348,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>6.38</v>
+        <v>6.49</v>
       </c>
       <c r="C80" t="n">
-        <v>6.38</v>
+        <v>6.49</v>
       </c>
       <c r="D80" t="n">
-        <v>6.38</v>
+        <v>6.49</v>
       </c>
       <c r="E80" t="n">
-        <v>6.38</v>
+        <v>6.49</v>
       </c>
       <c r="F80" t="n">
-        <v>6346.775</v>
+        <v>10100</v>
       </c>
       <c r="G80" t="n">
-        <v>6.428499999999993</v>
+        <v>-1087953.437</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3373,11 +3271,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3388,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>6.37</v>
+        <v>6.68</v>
       </c>
       <c r="C81" t="n">
-        <v>6.37</v>
+        <v>6.68</v>
       </c>
       <c r="D81" t="n">
-        <v>6.37</v>
+        <v>6.68</v>
       </c>
       <c r="E81" t="n">
-        <v>6.37</v>
+        <v>6.68</v>
       </c>
       <c r="F81" t="n">
-        <v>79221.1263</v>
+        <v>789.8577</v>
       </c>
       <c r="G81" t="n">
-        <v>6.422999999999993</v>
+        <v>-1087163.5793</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3413,11 +3307,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3428,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>6.37</v>
+        <v>6.48</v>
       </c>
       <c r="C82" t="n">
-        <v>6.36</v>
+        <v>6.48</v>
       </c>
       <c r="D82" t="n">
-        <v>6.37</v>
+        <v>6.48</v>
       </c>
       <c r="E82" t="n">
-        <v>6.36</v>
+        <v>6.48</v>
       </c>
       <c r="F82" t="n">
-        <v>120701</v>
+        <v>40000</v>
       </c>
       <c r="G82" t="n">
-        <v>6.420499999999994</v>
+        <v>-1127163.5793</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3453,11 +3343,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3468,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="C83" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="D83" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="E83" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="F83" t="n">
-        <v>10</v>
+        <v>10100</v>
       </c>
       <c r="G83" t="n">
-        <v>6.425999999999995</v>
+        <v>-1127163.5793</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3493,11 +3379,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3508,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>6.37</v>
+        <v>6.44</v>
       </c>
       <c r="C84" t="n">
-        <v>6.34</v>
+        <v>6.44</v>
       </c>
       <c r="D84" t="n">
-        <v>6.37</v>
+        <v>6.44</v>
       </c>
       <c r="E84" t="n">
-        <v>6.34</v>
+        <v>6.44</v>
       </c>
       <c r="F84" t="n">
-        <v>126098.7555</v>
+        <v>155185.7584</v>
       </c>
       <c r="G84" t="n">
-        <v>6.420499999999995</v>
+        <v>-1282349.3377</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3533,11 +3415,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3548,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="C85" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="D85" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="E85" t="n">
-        <v>6.53</v>
+        <v>6.43</v>
       </c>
       <c r="F85" t="n">
-        <v>401.0015</v>
+        <v>182613.0251</v>
       </c>
       <c r="G85" t="n">
-        <v>6.431499999999995</v>
+        <v>-1099736.3126</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3573,11 +3451,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="C86" t="n">
-        <v>6.34</v>
+        <v>6.42</v>
       </c>
       <c r="D86" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="E86" t="n">
-        <v>6.34</v>
+        <v>6.42</v>
       </c>
       <c r="F86" t="n">
-        <v>100.4265</v>
+        <v>420929.8388</v>
       </c>
       <c r="G86" t="n">
-        <v>6.424499999999997</v>
+        <v>-1520666.1514</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3613,11 +3487,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3628,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>6.62</v>
+        <v>6.48</v>
       </c>
       <c r="C87" t="n">
-        <v>6.62</v>
+        <v>6.48</v>
       </c>
       <c r="D87" t="n">
-        <v>6.62</v>
+        <v>6.48</v>
       </c>
       <c r="E87" t="n">
-        <v>6.62</v>
+        <v>6.48</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>19583.2561</v>
       </c>
       <c r="G87" t="n">
-        <v>6.431499999999997</v>
+        <v>-1501082.8953</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3653,11 +3523,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3668,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="C88" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="D88" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="E88" t="n">
-        <v>6.34</v>
+        <v>6.48</v>
       </c>
       <c r="F88" t="n">
-        <v>71130.40119999999</v>
+        <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>6.432999999999997</v>
+        <v>-1501082.8953</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3693,11 +3559,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3708,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="C89" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="D89" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="E89" t="n">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="F89" t="n">
-        <v>199.4428</v>
+        <v>3500</v>
       </c>
       <c r="G89" t="n">
-        <v>6.439999999999998</v>
+        <v>-1504582.8953</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3733,11 +3595,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3748,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="C90" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="D90" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="E90" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="F90" t="n">
-        <v>10607.712</v>
+        <v>578.3436</v>
       </c>
       <c r="G90" t="n">
-        <v>6.438499999999998</v>
+        <v>-1504004.551699999</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3773,11 +3631,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3788,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>6.56</v>
+        <v>6.42</v>
       </c>
       <c r="C91" t="n">
-        <v>6.56</v>
+        <v>6.48</v>
       </c>
       <c r="D91" t="n">
-        <v>6.56</v>
+        <v>6.48</v>
       </c>
       <c r="E91" t="n">
-        <v>6.56</v>
+        <v>6.42</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>1839</v>
       </c>
       <c r="G91" t="n">
-        <v>6.442499999999998</v>
+        <v>-1504004.551699999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3813,11 +3667,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>6.46</v>
+        <v>6.42</v>
       </c>
       <c r="C92" t="n">
-        <v>6.45</v>
+        <v>6.31</v>
       </c>
       <c r="D92" t="n">
-        <v>6.46</v>
+        <v>6.42</v>
       </c>
       <c r="E92" t="n">
-        <v>6.45</v>
+        <v>6.31</v>
       </c>
       <c r="F92" t="n">
-        <v>180000</v>
+        <v>231819.5238</v>
       </c>
       <c r="G92" t="n">
-        <v>6.4415</v>
+        <v>-1735824.0755</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3853,11 +3703,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3868,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>6.52</v>
+        <v>6.48</v>
       </c>
       <c r="C93" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="D93" t="n">
-        <v>6.53</v>
+        <v>6.48</v>
       </c>
       <c r="E93" t="n">
-        <v>6.52</v>
+        <v>6.48</v>
       </c>
       <c r="F93" t="n">
-        <v>35000</v>
+        <v>550.3163</v>
       </c>
       <c r="G93" t="n">
-        <v>6.450999999999999</v>
+        <v>-1735273.7592</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3893,11 +3739,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3908,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>6.54</v>
+        <v>6.31</v>
       </c>
       <c r="C94" t="n">
-        <v>6.62</v>
+        <v>6.31</v>
       </c>
       <c r="D94" t="n">
-        <v>6.62</v>
+        <v>6.31</v>
       </c>
       <c r="E94" t="n">
-        <v>6.54</v>
+        <v>6.31</v>
       </c>
       <c r="F94" t="n">
-        <v>94435.9975</v>
+        <v>16793.3111</v>
       </c>
       <c r="G94" t="n">
-        <v>6.461999999999999</v>
+        <v>-1752067.0703</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3933,11 +3775,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3948,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="C95" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="D95" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="E95" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="F95" t="n">
-        <v>7468.3106</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>6.477499999999999</v>
+        <v>-1752057.0703</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3973,11 +3811,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="C96" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="D96" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="E96" t="n">
-        <v>6.63</v>
+        <v>6.48</v>
       </c>
       <c r="F96" t="n">
-        <v>4403.7254</v>
+        <v>32.8703</v>
       </c>
       <c r="G96" t="n">
-        <v>6.484999999999999</v>
+        <v>-1752057.0703</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4013,11 +3847,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4028,38 +3858,32 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>6.63</v>
+        <v>6.31</v>
       </c>
       <c r="C97" t="n">
-        <v>6.65</v>
+        <v>6.31</v>
       </c>
       <c r="D97" t="n">
-        <v>6.65</v>
+        <v>6.31</v>
       </c>
       <c r="E97" t="n">
-        <v>6.63</v>
+        <v>6.31</v>
       </c>
       <c r="F97" t="n">
-        <v>32100</v>
+        <v>35000</v>
       </c>
       <c r="G97" t="n">
-        <v>6.4925</v>
+        <v>-1787057.0703</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>6.63</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="C98" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="D98" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="E98" t="n">
-        <v>6.45</v>
+        <v>6.48</v>
       </c>
       <c r="F98" t="n">
-        <v>848.3573</v>
+        <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>6.491</v>
+        <v>-1787047.0703</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4095,11 +3919,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4110,38 +3930,32 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="C99" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="D99" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="E99" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>396.2137</v>
       </c>
       <c r="G99" t="n">
-        <v>6.4995</v>
+        <v>-1787047.0703</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>6.45</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4152,38 +3966,32 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="C100" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="D100" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="E100" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="F100" t="n">
-        <v>35956.9924</v>
+        <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>6.513000000000001</v>
+        <v>-1787047.0703</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>6.65</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4194,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="C101" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="D101" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="E101" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="F101" t="n">
-        <v>775.7903</v>
+        <v>705.0531</v>
       </c>
       <c r="G101" t="n">
-        <v>6.527000000000001</v>
+        <v>-1787047.0703</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4219,11 +4027,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4234,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="C102" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="D102" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="E102" t="n">
-        <v>6.46</v>
+        <v>6.33</v>
       </c>
       <c r="F102" t="n">
-        <v>2143.7774</v>
+        <v>31279.62</v>
       </c>
       <c r="G102" t="n">
-        <v>6.531500000000001</v>
+        <v>-1818326.6903</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4259,11 +4063,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4274,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="C103" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="D103" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="E103" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="F103" t="n">
-        <v>143.7774</v>
+        <v>331.711</v>
       </c>
       <c r="G103" t="n">
-        <v>6.537000000000001</v>
+        <v>-1818658.4013</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4299,11 +4099,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4314,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="C104" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="D104" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="E104" t="n">
-        <v>6.64</v>
+        <v>6.32</v>
       </c>
       <c r="F104" t="n">
-        <v>173.3332</v>
+        <v>19625.4331</v>
       </c>
       <c r="G104" t="n">
-        <v>6.5505</v>
+        <v>-1818658.4013</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4339,11 +4135,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4354,36 +4146,36 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="C105" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="D105" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="E105" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="F105" t="n">
-        <v>266.6664</v>
+        <v>94.9469</v>
       </c>
       <c r="G105" t="n">
-        <v>6.555999999999999</v>
+        <v>-1818563.454399999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4394,34 +4186,38 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="C106" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="D106" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="E106" t="n">
-        <v>6.64</v>
+        <v>6.48</v>
       </c>
       <c r="F106" t="n">
-        <v>1560.0004</v>
+        <v>102000</v>
       </c>
       <c r="G106" t="n">
-        <v>6.570999999999998</v>
+        <v>-1818563.454399999</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6.32</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M106" t="n">
@@ -4434,40 +4230,1088 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="C107" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="D107" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="E107" t="n">
-        <v>6.65</v>
+        <v>6.48</v>
       </c>
       <c r="F107" t="n">
-        <v>197.7776</v>
+        <v>72166.3579</v>
       </c>
       <c r="G107" t="n">
-        <v>6.572499999999998</v>
+        <v>-1818563.454399999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="K107" t="n">
+        <v>6.32</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
       <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="C108" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="E108" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="F108" t="n">
+        <v>603.1643</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-1818563.454399999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="C109" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="E109" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6346.775</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-1824910.229399999</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C110" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="D110" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E110" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="F110" t="n">
+        <v>79221.1263</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-1904131.355699999</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C111" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D111" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E111" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="F111" t="n">
+        <v>120701</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-2024832.355699999</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C112" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E112" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-2024822.355699999</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="C113" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="E113" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F113" t="n">
+        <v>126098.7555</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-2150921.111199999</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="C114" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E114" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="F114" t="n">
+        <v>401.0015</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-2150520.109699999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C115" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D115" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E115" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F115" t="n">
+        <v>100.4265</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-2150620.5362</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C116" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D116" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E116" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F116" t="n">
+        <v>10</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-2150610.5362</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="C117" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="D117" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="E117" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F117" t="n">
+        <v>71130.40119999999</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-2221740.9374</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="C118" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E118" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="F118" t="n">
+        <v>199.4428</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-2221541.4946</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F119" t="n">
+        <v>10607.712</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-2232149.2066</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="C120" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="D120" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E120" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="F120" t="n">
+        <v>10</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2232139.2066</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C121" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D121" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E121" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F121" t="n">
+        <v>180000</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2412139.2066</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="C122" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="E122" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F122" t="n">
+        <v>35000</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-2377139.2066</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="C123" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.62</v>
+      </c>
+      <c r="E123" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="F123" t="n">
+        <v>94435.9975</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-2282703.2091</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C124" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E124" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F124" t="n">
+        <v>7468.3106</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2275234.8985</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="E125" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F125" t="n">
+        <v>4403.7254</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2275234.8985</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="C126" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E126" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F126" t="n">
+        <v>32100</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-2243134.8985</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="C127" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="E127" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="F127" t="n">
+        <v>848.3573</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-2243983.255799999</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E128" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-2243973.255799999</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C129" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E129" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F129" t="n">
+        <v>35956.9924</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2243973.255799999</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D130" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E130" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F130" t="n">
+        <v>775.7903</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-2243973.255799999</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="C131" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D131" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2143.7774</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-2246117.033199999</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C132" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F132" t="n">
+        <v>143.7774</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-2245973.255799999</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C133" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D133" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F133" t="n">
+        <v>173.3332</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-2245973.255799999</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C134" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D134" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F134" t="n">
+        <v>266.6664</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-2245973.255799999</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="C135" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="D135" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="E135" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1560.0004</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-2245973.255799999</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="C136" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="D136" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F136" t="n">
+        <v>197.7776</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-2245775.478199999</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,21 @@
         <v>-967909.1883999999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>6.68</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1216,21 @@
         <v>-803937.9578999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>6.73</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1255,21 @@
         <v>-803937.9578999998</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>6.78</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1296,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1333,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1370,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1407,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1444,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1479,21 @@
         <v>-924572.0796999998</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>6.52</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1520,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1555,21 @@
         <v>-990170.5396999997</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.45</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1596,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1633,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1670,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1707,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1744,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1781,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1818,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1855,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1892,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1929,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1966,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2003,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2040,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2075,17 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2110,15 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2143,15 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2176,15 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2211,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2244,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2277,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2310,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2343,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2376,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2409,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2442,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2475,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2506,15 @@
         <v>-499257.4164999996</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2539,15 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2572,15 @@
         <v>-600254.7217999996</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2607,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2640,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2673,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2706,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2739,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2772,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2805,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2838,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2871,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2904,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2937,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2970,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3003,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3036,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3069,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3102,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3135,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3168,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3201,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3234,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3267,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3300,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3480,18 +3331,15 @@
         <v>-1520666.1514</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3366,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3399,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3430,15 @@
         <v>-1504582.8953</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3624,18 +3463,15 @@
         <v>-1504004.551699999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3498,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3531,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3562,15 @@
         <v>-1735273.7592</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3595,15 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3630,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3663,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3696,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3729,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3762,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3795,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3828,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3861,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3894,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3927,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,22 +3958,15 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K105" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4204,26 +3991,15 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K106" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4248,26 +4024,15 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K107" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4294,16 +4059,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4330,16 +4092,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4366,16 +4125,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4402,16 +4158,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,18 +4189,19 @@
         <v>-2024822.355699999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>6.36</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6.36</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4472,18 +4226,23 @@
         <v>-2150921.111199999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+        <v>6.53</v>
+      </c>
+      <c r="J113" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4510,16 +4269,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4544,18 +4306,23 @@
         <v>-2150620.5362</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+        <v>6.53</v>
+      </c>
+      <c r="J115" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4582,16 +4349,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4618,16 +4388,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4654,16 +4427,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4690,16 +4466,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4726,16 +4505,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4762,16 +4544,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4798,16 +4583,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4834,16 +4622,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4870,16 +4661,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4904,18 +4698,23 @@
         <v>-2275234.8985</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>6.63</v>
+      </c>
+      <c r="J125" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4942,16 +4741,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4978,16 +4780,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5014,16 +4819,19 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5050,16 +4858,19 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5086,16 +4897,19 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5122,16 +4936,19 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,16 +4975,19 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5194,16 +5014,19 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5230,16 +5053,19 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5264,18 +5090,23 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>6.64</v>
+      </c>
+      <c r="J135" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5300,20 +5131,25 @@
         <v>-2245775.478199999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>6.64</v>
+      </c>
+      <c r="J136" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1177,17 +1177,11 @@
         <v>-967909.1883999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>6.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1216,17 +1210,11 @@
         <v>-803937.9578999998</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>6.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1255,17 +1243,11 @@
         <v>-803937.9578999998</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.78</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1298,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1335,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1372,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1409,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1446,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1479,17 +1441,11 @@
         <v>-924572.0796999998</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1522,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1555,17 +1507,11 @@
         <v>-990170.5396999997</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>6.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1598,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1635,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1709,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1746,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1783,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1820,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1857,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1894,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1927,15 +1837,11 @@
         <v>-481546.9138999996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1968,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2001,15 +1903,11 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2042,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2075,16 +1969,14 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
       <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
@@ -2110,7 +2002,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2143,7 +2035,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2176,7 +2068,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2506,7 +2398,7 @@
         <v>-499257.4164999996</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2539,7 +2431,7 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2572,7 +2464,7 @@
         <v>-600254.7217999996</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2605,7 +2497,7 @@
         <v>-615360.4618999996</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2638,7 +2530,7 @@
         <v>-1117997.9604</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2671,7 +2563,7 @@
         <v>-1097992.9604</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2704,7 +2596,7 @@
         <v>-1097982.9604</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2869,7 +2761,7 @@
         <v>-1103339.6187</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2902,7 +2794,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2935,7 +2827,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2968,7 +2860,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3001,7 +2893,7 @@
         <v>-1103906.9175</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3067,7 +2959,7 @@
         <v>-1077853.437</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3133,7 +3025,7 @@
         <v>-1087953.437</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3331,7 +3223,7 @@
         <v>-1520666.1514</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3430,7 +3322,7 @@
         <v>-1504582.8953</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3463,7 +3355,7 @@
         <v>-1504004.551699999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3562,7 +3454,7 @@
         <v>-1735273.7592</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3595,7 +3487,7 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -4189,14 +4081,10 @@
         <v>-2024822.355699999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="J112" t="n">
-        <v>6.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
@@ -4226,19 +4114,11 @@
         <v>-2150921.111199999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4306,19 +4180,11 @@
         <v>-2150620.5362</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4350,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4389,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4428,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4467,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4506,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4545,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4584,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4623,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4662,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4698,19 +4510,11 @@
         <v>-2275234.8985</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>6.63</v>
-      </c>
-      <c r="J125" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4742,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4778,17 +4576,15 @@
         <v>-2243983.255799999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J127" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.65</v>
+      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4817,15 +4613,17 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.45</v>
+      </c>
       <c r="J128" t="n">
-        <v>6.36</v>
+        <v>6.65</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4856,15 +4654,17 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>6.65</v>
+      </c>
       <c r="J129" t="n">
-        <v>6.36</v>
+        <v>6.65</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4898,14 +4698,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4937,14 +4731,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4973,17 +4761,15 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>6.46</v>
+      </c>
       <c r="J132" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.46</v>
+      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5012,15 +4798,17 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>6.64</v>
+      </c>
       <c r="J133" t="n">
-        <v>6.36</v>
+        <v>6.46</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -5055,11 +4843,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.36</v>
+        <v>6.46</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -5090,19 +4878,15 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>6.64</v>
       </c>
       <c r="J135" t="n">
-        <v>6.36</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>6.64</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5131,17 +4915,17 @@
         <v>-2245775.478199999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>6.64</v>
       </c>
       <c r="J136" t="n">
-        <v>6.36</v>
+        <v>6.64</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -5150,6 +4934,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
         <v>-800538.6514999999</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-822739.1779</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-831854.7671000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-837393.5798000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-837383.5798000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-875184.3565000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-875138.8165000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1020170.5397</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-481546.9138999996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-600254.7217999996</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-615360.4618999996</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-1117997.9604</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-1097992.9604</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-1097982.9604</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-1103339.6187</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-1103329.6187</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-1103906.9175</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-1077853.437</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1087953.437</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3487,10 +3487,14 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="J94" t="n">
+        <v>6.48</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3520,11 +3524,19 @@
         <v>-1752057.0703</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="J95" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3568,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4015,10 +4033,14 @@
         <v>-1904131.355699999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="J110" t="n">
+        <v>6.38</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4048,11 +4070,19 @@
         <v>-2024832.355699999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4081,11 +4111,19 @@
         <v>-2024822.355699999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4155,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4194,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4233,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4272,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4311,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4347,19 @@
         <v>-2221541.4946</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J118" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4391,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4430,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4469,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4508,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4547,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4586,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4625,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4664,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,15 +4700,17 @@
         <v>-2243983.255799999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
+        <v>6.38</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,17 +4739,15 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>6.65</v>
+        <v>6.38</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
@@ -4654,17 +4778,15 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>6.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>6.65</v>
+        <v>6.38</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L129" t="n">
@@ -4698,8 +4820,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4731,8 +4859,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4761,15 +4895,17 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>6.46</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
+        <v>6.38</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4798,17 +4934,15 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>6.46</v>
+        <v>6.38</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L133" t="n">
@@ -4843,11 +4977,11 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>6.46</v>
+        <v>6.38</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L134" t="n">
@@ -4878,15 +5012,17 @@
         <v>-2245973.255799999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
+        <v>6.38</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4915,17 +5051,15 @@
         <v>-2245775.478199999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>6.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>6.64</v>
+        <v>6.38</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L136" t="n">
@@ -4934,6 +5068,6 @@
       <c r="M136" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -517,7 +517,7 @@
         <v>-800538.6514999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-822739.1779</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-831854.7671000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-837393.5798000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-837383.5798000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-875184.3565000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-875138.8165000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1020170.5397</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-460736.9138999996</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-463214.4794999996</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-463204.4794999996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-463204.4794999996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-470525.4164999996</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-499267.4164999996</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-559254.7217999996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -3487,14 +3487,10 @@
         <v>-1752067.0703</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
@@ -3524,19 +3520,11 @@
         <v>-1752057.0703</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.48</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3868,10 +3850,14 @@
         <v>-1818563.454399999</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="J105" t="n">
+        <v>6.32</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
@@ -3904,8 +3890,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3937,8 +3929,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4033,14 +4031,10 @@
         <v>-1904131.355699999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
@@ -4075,9 +4069,7 @@
       <c r="I111" t="n">
         <v>6.37</v>
       </c>
-      <c r="J111" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4116,9 +4108,7 @@
       <c r="I112" t="n">
         <v>6.36</v>
       </c>
-      <c r="J112" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4155,9 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4191,12 +4179,12 @@
         <v>-2150520.109699999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4230,12 +4218,12 @@
         <v>-2150620.5362</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,12 +4257,12 @@
         <v>-2150610.5362</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4311,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4347,14 +4333,10 @@
         <v>-2221541.4946</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J118" t="n">
-        <v>6.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4391,9 +4373,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4427,12 +4407,12 @@
         <v>-2232139.2066</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4466,12 +4446,12 @@
         <v>-2412139.2066</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4505,12 +4485,12 @@
         <v>-2377139.2066</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4544,12 +4524,12 @@
         <v>-2282703.2091</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>6.53</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4586,9 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4625,9 +4603,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4664,9 +4640,7 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4700,12 +4674,12 @@
         <v>-2243983.255799999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4739,12 +4713,12 @@
         <v>-2243973.255799999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4781,9 +4755,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4820,9 +4792,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4859,9 +4829,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4898,9 +4866,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4937,9 +4903,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4976,9 +4940,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5015,9 +4977,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.38</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5051,12 +5011,12 @@
         <v>-2245775.478199999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.38</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>6.64</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2019-10-29 BackTest FAB.xlsx
+++ b/BackTest/2019-10-29 BackTest FAB.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>39.95</v>
       </c>
       <c r="G2" t="n">
-        <v>-816641.5724999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>16092.921</v>
       </c>
       <c r="G3" t="n">
-        <v>-800548.6514999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>-800538.6514999999</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>11962.7031</v>
       </c>
       <c r="G5" t="n">
-        <v>-812501.3546</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>3957.0311</v>
       </c>
       <c r="G6" t="n">
-        <v>-816458.3857</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>15792.3718</v>
       </c>
       <c r="G7" t="n">
-        <v>-816458.3857</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>6280.7922</v>
       </c>
       <c r="G8" t="n">
-        <v>-822739.1779</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6280.7174</v>
       </c>
       <c r="G9" t="n">
-        <v>-822739.1779</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>9115.5892</v>
       </c>
       <c r="G10" t="n">
-        <v>-831854.7671000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>5538.8127</v>
       </c>
       <c r="G11" t="n">
-        <v>-837393.5798000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-837383.5798000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>37800.7767</v>
       </c>
       <c r="G13" t="n">
-        <v>-875184.3565000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>45.54</v>
       </c>
       <c r="G14" t="n">
-        <v>-875138.8165000001</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>25.1736</v>
       </c>
       <c r="G15" t="n">
-        <v>-875163.9901000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>189882.4318</v>
       </c>
       <c r="G16" t="n">
-        <v>-1065046.4219</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-1065036.4219</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>2493.775</v>
       </c>
       <c r="G18" t="n">
-        <v>-1067530.1969</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>9269.8344</v>
       </c>
       <c r="G19" t="n">
-        <v>-1058260.3625</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>-1058250.3625</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>34639.2516</v>
       </c>
       <c r="G21" t="n">
-        <v>-1092889.6141</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>16393.3831</v>
       </c>
       <c r="G22" t="n">
-        <v>-1092889.6141</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>20000</v>
       </c>
       <c r="G23" t="n">
-        <v>-1092889.6141</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>124980.4257</v>
       </c>
       <c r="G24" t="n">
-        <v>-967909.1883999999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>163971.2305</v>
       </c>
       <c r="G25" t="n">
-        <v>-803937.9578999998</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>11402.581</v>
       </c>
       <c r="G26" t="n">
-        <v>-803937.9578999998</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>39.95</v>
       </c>
       <c r="G27" t="n">
-        <v>-803977.9078999998</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>10</v>
       </c>
       <c r="G28" t="n">
-        <v>-803967.9078999998</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>1157.8171</v>
       </c>
       <c r="G29" t="n">
-        <v>-803967.9078999998</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>39.95</v>
       </c>
       <c r="G30" t="n">
-        <v>-804007.8578999997</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>51389.4872</v>
       </c>
       <c r="G31" t="n">
-        <v>-752618.3706999997</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>171953.709</v>
       </c>
       <c r="G32" t="n">
-        <v>-924572.0796999998</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>65608.46000000001</v>
       </c>
       <c r="G33" t="n">
-        <v>-990180.5396999997</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>10</v>
       </c>
       <c r="G34" t="n">
-        <v>-990170.5396999997</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>30000</v>
       </c>
       <c r="G35" t="n">
-        <v>-1020170.5397</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2334.3102</v>
       </c>
       <c r="G36" t="n">
-        <v>-1022504.8499</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>20000</v>
       </c>
       <c r="G37" t="n">
-        <v>-1022504.8499</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>9486.016</v>
       </c>
       <c r="G38" t="n">
-        <v>-1013018.8339</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20000</v>
       </c>
       <c r="G39" t="n">
-        <v>-1033018.8339</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>270961.1891</v>
       </c>
       <c r="G40" t="n">
-        <v>-762057.6447999997</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>280245.8324</v>
       </c>
       <c r="G41" t="n">
-        <v>-481811.8123999996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>254.8985</v>
       </c>
       <c r="G42" t="n">
-        <v>-481556.9138999996</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>-481546.9138999996</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>50021.4545</v>
       </c>
       <c r="G44" t="n">
-        <v>-481546.9138999996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>20810</v>
       </c>
       <c r="G45" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>80720.72990000001</v>
       </c>
       <c r="G46" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>130987.4674</v>
       </c>
       <c r="G47" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>254.0145</v>
       </c>
       <c r="G48" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>218.8126</v>
       </c>
       <c r="G49" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>98.8888</v>
       </c>
       <c r="G50" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>98.8888</v>
       </c>
       <c r="G51" t="n">
-        <v>-460736.9138999996</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2477.5656</v>
       </c>
       <c r="G52" t="n">
-        <v>-463214.4794999996</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-463204.4794999996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>88.8888</v>
       </c>
       <c r="G54" t="n">
-        <v>-463204.4794999996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>2495.6202</v>
       </c>
       <c r="G55" t="n">
-        <v>-463204.4794999996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>7000.14</v>
       </c>
       <c r="G56" t="n">
-        <v>-463204.4794999996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>7320.937</v>
       </c>
       <c r="G57" t="n">
-        <v>-470525.4164999996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2679.063</v>
       </c>
       <c r="G58" t="n">
-        <v>-470525.4164999996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>4651.874</v>
       </c>
       <c r="G59" t="n">
-        <v>-470525.4164999996</v>
-      </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>28742</v>
       </c>
       <c r="G60" t="n">
-        <v>-499267.4164999996</v>
-      </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-499257.4164999996</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>59997.3053</v>
       </c>
       <c r="G62" t="n">
-        <v>-559254.7217999996</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>41000</v>
       </c>
       <c r="G63" t="n">
-        <v>-600254.7217999996</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>15105.7401</v>
       </c>
       <c r="G64" t="n">
-        <v>-615360.4618999996</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>502637.4985</v>
       </c>
       <c r="G65" t="n">
-        <v>-1117997.9604</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>20005</v>
       </c>
       <c r="G66" t="n">
-        <v>-1097992.9604</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>-1097982.9604</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>2592.09</v>
       </c>
       <c r="G68" t="n">
-        <v>-1100575.0504</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>257.4479</v>
       </c>
       <c r="G69" t="n">
-        <v>-1100317.6025</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>49243.331</v>
       </c>
       <c r="G70" t="n">
-        <v>-1100317.6025</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>10</v>
       </c>
       <c r="G71" t="n">
-        <v>-1100307.6025</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3032.0162</v>
       </c>
       <c r="G72" t="n">
-        <v>-1103339.6187</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>10</v>
       </c>
       <c r="G73" t="n">
-        <v>-1103329.6187</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>3022.016</v>
       </c>
       <c r="G74" t="n">
-        <v>-1103329.6187</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>37756.2578</v>
       </c>
       <c r="G75" t="n">
-        <v>-1103329.6187</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>577.2988</v>
       </c>
       <c r="G76" t="n">
-        <v>-1103906.9175</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>26053.4805</v>
       </c>
       <c r="G77" t="n">
-        <v>-1077853.437</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>2172.6764</v>
       </c>
       <c r="G78" t="n">
-        <v>-1077853.437</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>430</v>
       </c>
       <c r="G79" t="n">
-        <v>-1077853.437</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>10100</v>
       </c>
       <c r="G80" t="n">
-        <v>-1087953.437</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>789.8577</v>
       </c>
       <c r="G81" t="n">
-        <v>-1087163.5793</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>40000</v>
       </c>
       <c r="G82" t="n">
-        <v>-1127163.5793</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>10100</v>
       </c>
       <c r="G83" t="n">
-        <v>-1127163.5793</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>155185.7584</v>
       </c>
       <c r="G84" t="n">
-        <v>-1282349.3377</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>182613.0251</v>
       </c>
       <c r="G85" t="n">
-        <v>-1099736.3126</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>420929.8388</v>
       </c>
       <c r="G86" t="n">
-        <v>-1520666.1514</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>19583.2561</v>
       </c>
       <c r="G87" t="n">
-        <v>-1501082.8953</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>5000</v>
       </c>
       <c r="G88" t="n">
-        <v>-1501082.8953</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>3500</v>
       </c>
       <c r="G89" t="n">
-        <v>-1504582.8953</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>578.3436</v>
       </c>
       <c r="G90" t="n">
-        <v>-1504004.551699999</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1839</v>
       </c>
       <c r="G91" t="n">
-        <v>-1504004.551699999</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>231819.5238</v>
       </c>
       <c r="G92" t="n">
-        <v>-1735824.0755</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>550.3163</v>
       </c>
       <c r="G93" t="n">
-        <v>-1735273.7592</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>16793.3111</v>
       </c>
       <c r="G94" t="n">
-        <v>-1752067.0703</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>-1752057.0703</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>32.8703</v>
       </c>
       <c r="G96" t="n">
-        <v>-1752057.0703</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>35000</v>
       </c>
       <c r="G97" t="n">
-        <v>-1787057.0703</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>10</v>
       </c>
       <c r="G98" t="n">
-        <v>-1787047.0703</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>396.2137</v>
       </c>
       <c r="G99" t="n">
-        <v>-1787047.0703</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>200</v>
       </c>
       <c r="G100" t="n">
-        <v>-1787047.0703</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>705.0531</v>
       </c>
       <c r="G101" t="n">
-        <v>-1787047.0703</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>31279.62</v>
       </c>
       <c r="G102" t="n">
-        <v>-1818326.6903</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>331.711</v>
       </c>
       <c r="G103" t="n">
-        <v>-1818658.4013</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>19625.4331</v>
       </c>
       <c r="G104" t="n">
-        <v>-1818658.4013</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,22 +3533,19 @@
         <v>94.9469</v>
       </c>
       <c r="G105" t="n">
-        <v>-1818563.454399999</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>6.32</v>
       </c>
       <c r="I105" t="n">
         <v>6.32</v>
       </c>
-      <c r="J105" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3884,24 +3567,23 @@
         <v>102000</v>
       </c>
       <c r="G106" t="n">
-        <v>-1818563.454399999</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
+        <v>6.48</v>
+      </c>
+      <c r="I106" t="n">
         <v>6.32</v>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3923,24 +3605,21 @@
         <v>72166.3579</v>
       </c>
       <c r="G107" t="n">
-        <v>-1818563.454399999</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
         <v>6.32</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3962,18 +3641,15 @@
         <v>603.1643</v>
       </c>
       <c r="G108" t="n">
-        <v>-1818563.454399999</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3995,18 +3671,15 @@
         <v>6346.775</v>
       </c>
       <c r="G109" t="n">
-        <v>-1824910.229399999</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4028,18 +3701,15 @@
         <v>79221.1263</v>
       </c>
       <c r="G110" t="n">
-        <v>-1904131.355699999</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4061,24 +3731,21 @@
         <v>120701</v>
       </c>
       <c r="G111" t="n">
-        <v>-2024832.355699999</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
         <v>6.37</v>
       </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4100,24 +3767,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>-2024822.355699999</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
         <v>6.36</v>
       </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4139,22 +3803,21 @@
         <v>126098.7555</v>
       </c>
       <c r="G113" t="n">
-        <v>-2150921.111199999</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>6.53</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4176,24 +3839,19 @@
         <v>401.0015</v>
       </c>
       <c r="G114" t="n">
-        <v>-2150520.109699999</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4215,24 +3873,19 @@
         <v>100.4265</v>
       </c>
       <c r="G115" t="n">
-        <v>-2150620.5362</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4254,24 +3907,19 @@
         <v>10</v>
       </c>
       <c r="G116" t="n">
-        <v>-2150610.5362</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4293,22 +3941,19 @@
         <v>71130.40119999999</v>
       </c>
       <c r="G117" t="n">
-        <v>-2221740.9374</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
+      <c r="J117" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4330,22 +3975,19 @@
         <v>199.4428</v>
       </c>
       <c r="G118" t="n">
-        <v>-2221541.4946</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
+      <c r="J118" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4367,22 +4009,19 @@
         <v>10607.712</v>
       </c>
       <c r="G119" t="n">
-        <v>-2232149.2066</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
+      <c r="J119" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4404,24 +4043,19 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>-2232139.2066</v>
-      </c>
-      <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4443,24 +4077,19 @@
         <v>180000</v>
       </c>
       <c r="G121" t="n">
-        <v>-2412139.2066</v>
-      </c>
-      <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4482,24 +4111,19 @@
         <v>35000</v>
       </c>
       <c r="G122" t="n">
-        <v>-2377139.2066</v>
-      </c>
-      <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4521,24 +4145,19 @@
         <v>94435.9975</v>
       </c>
       <c r="G123" t="n">
-        <v>-2282703.2091</v>
-      </c>
-      <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>6.53</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4560,22 +4179,19 @@
         <v>7468.3106</v>
       </c>
       <c r="G124" t="n">
-        <v>-2275234.8985</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+      <c r="J124" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4597,22 +4213,19 @@
         <v>4403.7254</v>
       </c>
       <c r="G125" t="n">
-        <v>-2275234.8985</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
+      <c r="J125" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4634,22 +4247,19 @@
         <v>32100</v>
       </c>
       <c r="G126" t="n">
-        <v>-2243134.8985</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="J126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4671,24 +4281,19 @@
         <v>848.3573</v>
       </c>
       <c r="G127" t="n">
-        <v>-2243983.255799999</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4710,24 +4315,19 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>-2243973.255799999</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4749,22 +4349,19 @@
         <v>35956.9924</v>
       </c>
       <c r="G129" t="n">
-        <v>-2243973.255799999</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
+      <c r="J129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4786,22 +4383,19 @@
         <v>775.7903</v>
       </c>
       <c r="G130" t="n">
-        <v>-2243973.255799999</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
+      <c r="J130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4823,22 +4417,19 @@
         <v>2143.7774</v>
       </c>
       <c r="G131" t="n">
-        <v>-2246117.033199999</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4860,22 +4451,19 @@
         <v>143.7774</v>
       </c>
       <c r="G132" t="n">
-        <v>-2245973.255799999</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4897,22 +4485,19 @@
         <v>173.3332</v>
       </c>
       <c r="G133" t="n">
-        <v>-2245973.255799999</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
+      <c r="J133" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4934,22 +4519,19 @@
         <v>266.6664</v>
       </c>
       <c r="G134" t="n">
-        <v>-2245973.255799999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
+      <c r="J134" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4971,22 +4553,19 @@
         <v>1560.0004</v>
       </c>
       <c r="G135" t="n">
-        <v>-2245973.255799999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
+      <c r="J135" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5008,24 +4587,19 @@
         <v>197.7776</v>
       </c>
       <c r="G136" t="n">
-        <v>-2245775.478199999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
